--- a/클래식.xlsx
+++ b/클래식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\music_classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849A0430-DE90-4760-9D74-7ED633B2B661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD83524-99B9-4A6D-99D5-C993B78459C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="13740" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>하루 클래식 공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>레베카 클라크, 모르페우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일 1곡, 나의 취향을 찾는 음악 감상 습관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D371"/>
+  <dimension ref="B2:D373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -382,1836 +386,1841 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
-        <v>44563</v>
       </c>
     </row>
     <row r="9" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <v>44564</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="10" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <v>44565</v>
+        <v>44563</v>
       </c>
     </row>
     <row r="11" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <v>44566</v>
+        <v>44564</v>
       </c>
     </row>
     <row r="12" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <v>44567</v>
+        <v>44565</v>
       </c>
     </row>
     <row r="13" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <v>44568</v>
+        <v>44566</v>
       </c>
     </row>
     <row r="14" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <v>44569</v>
+        <v>44567</v>
       </c>
     </row>
     <row r="15" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <v>44570</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="16" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <v>44571</v>
+        <v>44569</v>
       </c>
     </row>
     <row r="17" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <v>44572</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="18" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <v>44573</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="19" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <v>44574</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="20" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <v>44575</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="21" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <v>44576</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="22" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <v>44577</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="23" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <v>44578</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="24" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <v>44579</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="25" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <v>44580</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="26" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <v>44581</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="27" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <v>44582</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="28" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <v>44583</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="29" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <v>44584</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="30" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <v>44585</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="31" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <v>44586</v>
+        <v>44584</v>
       </c>
     </row>
     <row r="32" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <v>44587</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="33" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <v>44588</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="34" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <v>44589</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="35" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <v>44590</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="36" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <v>44591</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <v>44592</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="38" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <v>44594</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="40" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <v>44595</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="41" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <v>44596</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="42" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <v>44597</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="43" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <v>44598</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="44" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <v>44599</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="45" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <v>44600</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="46" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <v>44601</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="47" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <v>44602</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="48" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <v>44603</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="49" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
-        <v>44604</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="50" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <v>44605</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="51" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <v>44606</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="52" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <v>44607</v>
+        <v>44605</v>
       </c>
     </row>
     <row r="53" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <v>44608</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="54" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
-        <v>44609</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="55" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
-        <v>44610</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="56" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
-        <v>44611</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="57" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <v>44612</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="58" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <v>44613</v>
+        <v>44611</v>
       </c>
     </row>
     <row r="59" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <v>44614</v>
+        <v>44612</v>
       </c>
     </row>
     <row r="60" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <v>44615</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="61" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <v>44616</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="62" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <v>44617</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="63" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <v>44618</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="64" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <v>44619</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <v>44620</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="66" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <v>44622</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="68" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <v>44623</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="69" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <v>44624</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="70" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <v>44625</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="71" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <v>44626</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="72" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
-        <v>44627</v>
+        <v>44625</v>
       </c>
     </row>
     <row r="73" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
-        <v>44628</v>
+        <v>44626</v>
       </c>
     </row>
     <row r="74" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <v>44629</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="75" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
-        <v>44630</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="76" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
-        <v>44631</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="77" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <v>44632</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="78" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
-        <v>44633</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="79" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
-        <v>44634</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="80" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
-        <v>44635</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="81" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <v>44636</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="82" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
-        <v>44637</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="83" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
-        <v>44638</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="84" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
-        <v>44639</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="85" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
-        <v>44640</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="86" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
-        <v>44641</v>
+        <v>44639</v>
       </c>
     </row>
     <row r="87" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
-        <v>44642</v>
+        <v>44640</v>
       </c>
     </row>
     <row r="88" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
-        <v>44643</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="89" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
-        <v>44644</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="90" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
-        <v>44645</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="91" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
-        <v>44646</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="92" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
-        <v>44647</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="93" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
-        <v>44648</v>
+        <v>44646</v>
       </c>
     </row>
     <row r="94" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
-        <v>44649</v>
+        <v>44647</v>
       </c>
     </row>
     <row r="95" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
-        <v>44650</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
-        <v>44651</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="97" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
-        <v>44653</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="99" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
-        <v>44654</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="100" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
-        <v>44655</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="101" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1">
-        <v>44656</v>
+        <v>44654</v>
       </c>
     </row>
     <row r="102" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B102" s="1">
-        <v>44657</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="103" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1">
-        <v>44658</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="104" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
-        <v>44659</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="105" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B105" s="1">
-        <v>44660</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="106" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1">
-        <v>44661</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="107" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B107" s="1">
-        <v>44662</v>
+        <v>44660</v>
       </c>
     </row>
     <row r="108" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B108" s="1">
-        <v>44663</v>
+        <v>44661</v>
       </c>
     </row>
     <row r="109" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B109" s="1">
-        <v>44664</v>
+        <v>44662</v>
       </c>
     </row>
     <row r="110" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B110" s="1">
-        <v>44665</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="111" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B111" s="1">
-        <v>44666</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="112" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B112" s="1">
-        <v>44667</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="113" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B113" s="1">
-        <v>44668</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="114" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B114" s="1">
-        <v>44669</v>
+        <v>44667</v>
       </c>
     </row>
     <row r="115" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B115" s="1">
-        <v>44670</v>
+        <v>44668</v>
       </c>
     </row>
     <row r="116" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B116" s="1">
-        <v>44671</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="117" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
-        <v>44672</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="118" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
-        <v>44673</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="119" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
-        <v>44674</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="120" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B120" s="1">
-        <v>44675</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="121" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B121" s="1">
-        <v>44676</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="122" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B122" s="1">
-        <v>44677</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="123" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B123" s="1">
-        <v>44678</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="124" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B124" s="1">
-        <v>44679</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="125" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B125" s="1">
-        <v>44680</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B126" s="1">
-        <v>44681</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="127" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B127" s="1">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
-        <v>44683</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="129" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B129" s="1">
-        <v>44684</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="130" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B130" s="1">
-        <v>44685</v>
+        <v>44683</v>
       </c>
     </row>
     <row r="131" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B131" s="1">
-        <v>44686</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="132" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B132" s="1">
-        <v>44687</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="133" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B133" s="1">
-        <v>44688</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="134" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B134" s="1">
-        <v>44689</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="135" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B135" s="1">
-        <v>44690</v>
+        <v>44688</v>
       </c>
     </row>
     <row r="136" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B136" s="1">
-        <v>44691</v>
+        <v>44689</v>
       </c>
     </row>
     <row r="137" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B137" s="1">
-        <v>44692</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="138" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B138" s="1">
-        <v>44693</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="139" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B139" s="1">
-        <v>44694</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="140" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B140" s="1">
-        <v>44695</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="141" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B141" s="1">
-        <v>44696</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="142" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B142" s="1">
-        <v>44697</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="143" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B143" s="1">
-        <v>44698</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="144" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B144" s="1">
-        <v>44699</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="145" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B145" s="1">
-        <v>44700</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="146" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B146" s="1">
-        <v>44701</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="147" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B147" s="1">
-        <v>44702</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="148" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B148" s="1">
-        <v>44703</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="149" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B149" s="1">
-        <v>44704</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="150" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B150" s="1">
-        <v>44705</v>
+        <v>44703</v>
       </c>
     </row>
     <row r="151" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B151" s="1">
-        <v>44706</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="152" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B152" s="1">
-        <v>44707</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="153" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B153" s="1">
-        <v>44708</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="154" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B154" s="1">
-        <v>44709</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="155" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B155" s="1">
-        <v>44710</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="156" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B156" s="1">
-        <v>44711</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B157" s="1">
-        <v>44712</v>
+        <v>44710</v>
       </c>
     </row>
     <row r="158" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B158" s="1">
-        <v>44713</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B159" s="1">
-        <v>44714</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="160" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B160" s="1">
-        <v>44715</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="161" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B161" s="1">
-        <v>44716</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="162" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B162" s="1">
-        <v>44717</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="163" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B163" s="1">
-        <v>44718</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="164" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B164" s="1">
-        <v>44719</v>
+        <v>44717</v>
       </c>
     </row>
     <row r="165" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B165" s="1">
-        <v>44720</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="166" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B166" s="1">
-        <v>44721</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="167" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B167" s="1">
-        <v>44722</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="168" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B168" s="1">
-        <v>44723</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="169" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B169" s="1">
-        <v>44724</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="170" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B170" s="1">
-        <v>44725</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="171" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B171" s="1">
-        <v>44726</v>
+        <v>44724</v>
       </c>
     </row>
     <row r="172" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B172" s="1">
-        <v>44727</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="173" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B173" s="1">
-        <v>44728</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="174" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B174" s="1">
-        <v>44729</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="175" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B175" s="1">
-        <v>44730</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="176" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B176" s="1">
-        <v>44731</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="177" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B177" s="1">
-        <v>44732</v>
+        <v>44730</v>
       </c>
     </row>
     <row r="178" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B178" s="1">
-        <v>44733</v>
+        <v>44731</v>
       </c>
     </row>
     <row r="179" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B179" s="1">
-        <v>44734</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="180" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B180" s="1">
-        <v>44735</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="181" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B181" s="1">
-        <v>44736</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="182" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B182" s="1">
-        <v>44737</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="183" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B183" s="1">
-        <v>44738</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="184" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B184" s="1">
-        <v>44739</v>
+        <v>44737</v>
       </c>
     </row>
     <row r="185" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B185" s="1">
-        <v>44740</v>
+        <v>44738</v>
       </c>
     </row>
     <row r="186" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B186" s="1">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B187" s="1">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B188" s="1">
         <v>44741</v>
       </c>
     </row>
-    <row r="187" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="B187" s="1">
+    <row r="189" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="B189" s="1">
         <v>44742</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B188" s="1">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B189" s="1">
-        <v>44744</v>
       </c>
     </row>
     <row r="190" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B190" s="1">
-        <v>44745</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="191" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B191" s="1">
-        <v>44746</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="192" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B192" s="1">
-        <v>44747</v>
+        <v>44745</v>
       </c>
     </row>
     <row r="193" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B193" s="1">
-        <v>44748</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="194" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B194" s="1">
-        <v>44749</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="195" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B195" s="1">
-        <v>44750</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="196" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B196" s="1">
-        <v>44751</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="197" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B197" s="1">
-        <v>44752</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="198" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B198" s="1">
-        <v>44753</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="199" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B199" s="1">
-        <v>44754</v>
+        <v>44752</v>
       </c>
     </row>
     <row r="200" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B200" s="1">
-        <v>44755</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="201" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B201" s="1">
-        <v>44756</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="202" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B202" s="1">
-        <v>44757</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="203" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B203" s="1">
-        <v>44758</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="204" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B204" s="1">
-        <v>44759</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="205" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B205" s="1">
-        <v>44760</v>
+        <v>44758</v>
       </c>
     </row>
     <row r="206" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B206" s="1">
-        <v>44761</v>
+        <v>44759</v>
       </c>
     </row>
     <row r="207" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B207" s="1">
-        <v>44762</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="208" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B208" s="1">
-        <v>44763</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="209" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B209" s="1">
-        <v>44764</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="210" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B210" s="1">
-        <v>44765</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="211" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B211" s="1">
-        <v>44766</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="212" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B212" s="1">
-        <v>44767</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="213" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B213" s="1">
-        <v>44768</v>
+        <v>44766</v>
       </c>
     </row>
     <row r="214" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B214" s="1">
-        <v>44769</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="215" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B215" s="1">
-        <v>44770</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="216" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B216" s="1">
-        <v>44771</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="217" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B217" s="1">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B218" s="1">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B219" s="1">
         <v>44772</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D219" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B218" s="1">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B220" s="1">
         <v>44773</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B219" s="1">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B220" s="1">
-        <v>44775</v>
       </c>
     </row>
     <row r="221" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B221" s="1">
-        <v>44776</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="222" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B222" s="1">
-        <v>44777</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="223" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B223" s="1">
-        <v>44778</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="224" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B224" s="1">
-        <v>44779</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="225" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B225" s="1">
-        <v>44780</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="226" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B226" s="1">
-        <v>44781</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="227" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B227" s="1">
-        <v>44782</v>
+        <v>44780</v>
       </c>
     </row>
     <row r="228" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B228" s="1">
-        <v>44783</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="229" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B229" s="1">
-        <v>44784</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="230" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B230" s="1">
-        <v>44785</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="231" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B231" s="1">
-        <v>44786</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="232" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B232" s="1">
-        <v>44787</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="233" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B233" s="1">
-        <v>44788</v>
+        <v>44786</v>
       </c>
     </row>
     <row r="234" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B234" s="1">
-        <v>44789</v>
+        <v>44787</v>
       </c>
     </row>
     <row r="235" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B235" s="1">
-        <v>44790</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="236" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B236" s="1">
-        <v>44791</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="237" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B237" s="1">
-        <v>44792</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="238" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B238" s="1">
-        <v>44793</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="239" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B239" s="1">
-        <v>44794</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="240" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B240" s="1">
-        <v>44795</v>
+        <v>44793</v>
       </c>
     </row>
     <row r="241" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B241" s="1">
-        <v>44796</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="242" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B242" s="1">
-        <v>44797</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="243" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B243" s="1">
-        <v>44798</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="244" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B244" s="1">
-        <v>44799</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="245" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B245" s="1">
-        <v>44800</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="246" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B246" s="1">
-        <v>44801</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="247" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B247" s="1">
-        <v>44802</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="248" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B248" s="1">
-        <v>44803</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44801</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B249" s="1">
-        <v>44804</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="250" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B250" s="1">
-        <v>44805</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B251" s="1">
-        <v>44806</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="252" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B252" s="1">
-        <v>44807</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="253" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B253" s="1">
-        <v>44808</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="254" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B254" s="1">
-        <v>44809</v>
+        <v>44807</v>
       </c>
     </row>
     <row r="255" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B255" s="1">
-        <v>44810</v>
+        <v>44808</v>
       </c>
     </row>
     <row r="256" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B256" s="1">
-        <v>44811</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="257" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B257" s="1">
-        <v>44812</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="258" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B258" s="1">
-        <v>44813</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="259" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B259" s="1">
-        <v>44814</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="260" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B260" s="1">
-        <v>44815</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="261" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B261" s="1">
-        <v>44816</v>
+        <v>44814</v>
       </c>
     </row>
     <row r="262" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B262" s="1">
-        <v>44817</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="263" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B263" s="1">
-        <v>44818</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="264" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B264" s="1">
-        <v>44819</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="265" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B265" s="1">
-        <v>44820</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="266" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B266" s="1">
-        <v>44821</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="267" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B267" s="1">
-        <v>44822</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="268" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B268" s="1">
-        <v>44823</v>
+        <v>44821</v>
       </c>
     </row>
     <row r="269" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B269" s="1">
-        <v>44824</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="270" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B270" s="1">
-        <v>44825</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="271" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B271" s="1">
-        <v>44826</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="272" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B272" s="1">
-        <v>44827</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="273" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B273" s="1">
-        <v>44828</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="274" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B274" s="1">
-        <v>44829</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="275" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B275" s="1">
-        <v>44830</v>
+        <v>44828</v>
       </c>
     </row>
     <row r="276" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B276" s="1">
-        <v>44831</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="277" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B277" s="1">
-        <v>44832</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="278" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B278" s="1">
-        <v>44833</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B279" s="1">
-        <v>44834</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="280" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B280" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B281" s="1">
-        <v>44836</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="282" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B282" s="1">
-        <v>44837</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="283" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B283" s="1">
-        <v>44838</v>
+        <v>44836</v>
       </c>
     </row>
     <row r="284" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B284" s="1">
-        <v>44839</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="285" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B285" s="1">
-        <v>44840</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="286" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B286" s="1">
-        <v>44841</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="287" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B287" s="1">
-        <v>44842</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="288" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B288" s="1">
-        <v>44843</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="289" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B289" s="1">
-        <v>44844</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="290" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B290" s="1">
-        <v>44845</v>
+        <v>44843</v>
       </c>
     </row>
     <row r="291" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B291" s="1">
-        <v>44846</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="292" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B292" s="1">
-        <v>44847</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="293" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B293" s="1">
-        <v>44848</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="294" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B294" s="1">
-        <v>44849</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="295" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B295" s="1">
-        <v>44850</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="296" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B296" s="1">
-        <v>44851</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="297" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B297" s="1">
-        <v>44852</v>
+        <v>44850</v>
       </c>
     </row>
     <row r="298" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B298" s="1">
-        <v>44853</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="299" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B299" s="1">
-        <v>44854</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="300" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B300" s="1">
-        <v>44855</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="301" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B301" s="1">
-        <v>44856</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="302" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B302" s="1">
-        <v>44857</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="303" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B303" s="1">
-        <v>44858</v>
+        <v>44856</v>
       </c>
     </row>
     <row r="304" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B304" s="1">
-        <v>44859</v>
+        <v>44857</v>
       </c>
     </row>
     <row r="305" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B305" s="1">
-        <v>44860</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="306" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B306" s="1">
-        <v>44861</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="307" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B307" s="1">
-        <v>44862</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="308" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B308" s="1">
-        <v>44863</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="309" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B309" s="1">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B310" s="1">
-        <v>44865</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="311" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B311" s="1">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B312" s="1">
-        <v>44867</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="313" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B313" s="1">
-        <v>44868</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="314" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B314" s="1">
-        <v>44869</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="315" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B315" s="1">
-        <v>44870</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="316" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B316" s="1">
-        <v>44871</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="317" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B317" s="1">
-        <v>44872</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="318" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B318" s="1">
-        <v>44873</v>
+        <v>44871</v>
       </c>
     </row>
     <row r="319" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B319" s="1">
-        <v>44874</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="320" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B320" s="1">
-        <v>44875</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="321" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B321" s="1">
-        <v>44876</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="322" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B322" s="1">
-        <v>44877</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="323" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B323" s="1">
-        <v>44878</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="324" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B324" s="1">
-        <v>44879</v>
+        <v>44877</v>
       </c>
     </row>
     <row r="325" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B325" s="1">
-        <v>44880</v>
+        <v>44878</v>
       </c>
     </row>
     <row r="326" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B326" s="1">
-        <v>44881</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="327" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B327" s="1">
-        <v>44882</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="328" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B328" s="1">
-        <v>44883</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="329" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B329" s="1">
-        <v>44884</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="330" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B330" s="1">
-        <v>44885</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="331" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B331" s="1">
-        <v>44886</v>
+        <v>44884</v>
       </c>
     </row>
     <row r="332" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B332" s="1">
-        <v>44887</v>
+        <v>44885</v>
       </c>
     </row>
     <row r="333" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B333" s="1">
-        <v>44888</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="334" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B334" s="1">
-        <v>44889</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="335" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B335" s="1">
-        <v>44890</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="336" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B336" s="1">
-        <v>44891</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="337" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B337" s="1">
-        <v>44892</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="338" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B338" s="1">
-        <v>44893</v>
+        <v>44891</v>
       </c>
     </row>
     <row r="339" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B339" s="1">
-        <v>44894</v>
-      </c>
-    </row>
-    <row r="340" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B340" s="1">
-        <v>44895</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="341" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B341" s="1">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B342" s="1">
-        <v>44897</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="343" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B343" s="1">
-        <v>44898</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="344" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B344" s="1">
-        <v>44899</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="345" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B345" s="1">
-        <v>44900</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="346" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B346" s="1">
-        <v>44901</v>
+        <v>44899</v>
       </c>
     </row>
     <row r="347" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B347" s="1">
-        <v>44902</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="348" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B348" s="1">
-        <v>44903</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="349" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B349" s="1">
-        <v>44904</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="350" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B350" s="1">
-        <v>44905</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="351" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B351" s="1">
-        <v>44906</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="352" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B352" s="1">
-        <v>44907</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="353" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B353" s="1">
-        <v>44908</v>
+        <v>44906</v>
       </c>
     </row>
     <row r="354" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B354" s="1">
-        <v>44909</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="355" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B355" s="1">
-        <v>44910</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="356" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B356" s="1">
-        <v>44911</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="357" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B357" s="1">
-        <v>44912</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="358" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B358" s="1">
-        <v>44913</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="359" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B359" s="1">
-        <v>44914</v>
+        <v>44912</v>
       </c>
     </row>
     <row r="360" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B360" s="1">
-        <v>44915</v>
+        <v>44913</v>
       </c>
     </row>
     <row r="361" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B361" s="1">
-        <v>44916</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="362" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B362" s="1">
-        <v>44917</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="363" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B363" s="1">
-        <v>44918</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="364" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B364" s="1">
-        <v>44919</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="365" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B365" s="1">
-        <v>44920</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="366" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B366" s="1">
-        <v>44921</v>
+        <v>44919</v>
       </c>
     </row>
     <row r="367" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B367" s="1">
-        <v>44922</v>
+        <v>44920</v>
       </c>
     </row>
     <row r="368" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B368" s="1">
-        <v>44923</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="369" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B369" s="1">
-        <v>44924</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="370" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B370" s="1">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B371" s="1">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B372" s="1">
         <v>44925</v>
       </c>
     </row>
-    <row r="371" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="B371" s="1">
+    <row r="373" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="B373" s="1">
         <v>44926</v>
       </c>
     </row>

--- a/클래식.xlsx
+++ b/클래식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\music_classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD83524-99B9-4A6D-99D5-C993B78459C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A67822-8745-4B90-BC1B-0E49A57C5866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="13740" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>하루 클래식 공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,26 @@
   </si>
   <si>
     <t>1일 1곡, 나의 취향을 찾는 음악 감상 습관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글릿 지음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서출판 유유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 2월 24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울주옹기종기 도서관 670.15 글298ㅎ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,9 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -369,1858 +390,1886 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D373"/>
+  <dimension ref="B2:D375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.69921875" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
         <v>44562</v>
       </c>
     </row>
-    <row r="10" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
+    <row r="12" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
         <v>44563</v>
       </c>
     </row>
-    <row r="11" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
+    <row r="13" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
         <v>44564</v>
       </c>
     </row>
-    <row r="12" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
+    <row r="14" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
         <v>44565</v>
       </c>
     </row>
-    <row r="13" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
+    <row r="15" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
         <v>44566</v>
       </c>
     </row>
-    <row r="14" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
+    <row r="16" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
         <v>44567</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <v>44569</v>
       </c>
     </row>
     <row r="17" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <v>44570</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="18" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <v>44571</v>
+        <v>44569</v>
       </c>
     </row>
     <row r="19" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <v>44572</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="20" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <v>44573</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="21" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <v>44574</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="22" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <v>44575</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="23" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <v>44576</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="24" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <v>44577</v>
+        <v>44575</v>
       </c>
     </row>
     <row r="25" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <v>44578</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="26" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <v>44579</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="27" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <v>44580</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="28" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <v>44581</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="29" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <v>44582</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="30" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <v>44583</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="31" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <v>44584</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="32" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <v>44585</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="33" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <v>44586</v>
+        <v>44584</v>
       </c>
     </row>
     <row r="34" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <v>44587</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="35" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <v>44588</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="36" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <v>44589</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="37" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <v>44590</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="38" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <v>44591</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <v>44592</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="40" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <v>44594</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="42" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <v>44595</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="43" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <v>44596</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="44" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <v>44597</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="45" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <v>44598</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="46" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <v>44599</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="47" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <v>44600</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="48" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <v>44601</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="49" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
-        <v>44602</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="50" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <v>44603</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="51" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <v>44604</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="52" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <v>44605</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="53" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <v>44606</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="54" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
-        <v>44607</v>
+        <v>44605</v>
       </c>
     </row>
     <row r="55" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
-        <v>44608</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="56" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
-        <v>44609</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="57" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <v>44610</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="58" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <v>44611</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="59" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <v>44612</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="60" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <v>44613</v>
+        <v>44611</v>
       </c>
     </row>
     <row r="61" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <v>44614</v>
+        <v>44612</v>
       </c>
     </row>
     <row r="62" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <v>44615</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="63" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <v>44616</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="64" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <v>44617</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="65" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <v>44618</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="66" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <v>44619</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <v>44620</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="68" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <v>44622</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="70" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <v>44623</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="71" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <v>44624</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="72" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
-        <v>44625</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="73" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
-        <v>44626</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="74" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <v>44627</v>
+        <v>44625</v>
       </c>
     </row>
     <row r="75" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
-        <v>44628</v>
+        <v>44626</v>
       </c>
     </row>
     <row r="76" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
-        <v>44629</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="77" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <v>44630</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="78" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
-        <v>44631</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="79" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
-        <v>44632</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="80" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
-        <v>44633</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="81" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <v>44634</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="82" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
-        <v>44635</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="83" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
-        <v>44636</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="84" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
-        <v>44637</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="85" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
-        <v>44638</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="86" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
-        <v>44639</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="87" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
-        <v>44640</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="88" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
-        <v>44641</v>
+        <v>44639</v>
       </c>
     </row>
     <row r="89" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
-        <v>44642</v>
+        <v>44640</v>
       </c>
     </row>
     <row r="90" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
-        <v>44643</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="91" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
-        <v>44644</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="92" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
-        <v>44645</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="93" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
-        <v>44646</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="94" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
-        <v>44647</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="95" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
-        <v>44648</v>
+        <v>44646</v>
       </c>
     </row>
     <row r="96" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
-        <v>44649</v>
+        <v>44647</v>
       </c>
     </row>
     <row r="97" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
-        <v>44650</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
-        <v>44651</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="99" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
-        <v>44653</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="101" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1">
-        <v>44654</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="102" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B102" s="1">
-        <v>44655</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="103" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1">
-        <v>44656</v>
+        <v>44654</v>
       </c>
     </row>
     <row r="104" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
-        <v>44657</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="105" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B105" s="1">
-        <v>44658</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="106" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1">
-        <v>44659</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="107" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B107" s="1">
-        <v>44660</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="108" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B108" s="1">
-        <v>44661</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="109" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B109" s="1">
-        <v>44662</v>
+        <v>44660</v>
       </c>
     </row>
     <row r="110" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B110" s="1">
-        <v>44663</v>
+        <v>44661</v>
       </c>
     </row>
     <row r="111" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B111" s="1">
-        <v>44664</v>
+        <v>44662</v>
       </c>
     </row>
     <row r="112" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B112" s="1">
-        <v>44665</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="113" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B113" s="1">
-        <v>44666</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="114" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B114" s="1">
-        <v>44667</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="115" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B115" s="1">
-        <v>44668</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="116" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B116" s="1">
-        <v>44669</v>
+        <v>44667</v>
       </c>
     </row>
     <row r="117" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B117" s="1">
-        <v>44670</v>
+        <v>44668</v>
       </c>
     </row>
     <row r="118" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B118" s="1">
-        <v>44671</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="119" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B119" s="1">
-        <v>44672</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="120" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B120" s="1">
-        <v>44673</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="121" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B121" s="1">
-        <v>44674</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="122" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B122" s="1">
-        <v>44675</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="123" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B123" s="1">
-        <v>44676</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="124" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B124" s="1">
-        <v>44677</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="125" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B125" s="1">
-        <v>44678</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="126" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B126" s="1">
-        <v>44679</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="127" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B127" s="1">
-        <v>44680</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B128" s="1">
-        <v>44681</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="129" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B129" s="1">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B130" s="1">
-        <v>44683</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="131" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B131" s="1">
-        <v>44684</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="132" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B132" s="1">
-        <v>44685</v>
+        <v>44683</v>
       </c>
     </row>
     <row r="133" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B133" s="1">
-        <v>44686</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="134" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B134" s="1">
-        <v>44687</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="135" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B135" s="1">
-        <v>44688</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="136" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B136" s="1">
-        <v>44689</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="137" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B137" s="1">
-        <v>44690</v>
+        <v>44688</v>
       </c>
     </row>
     <row r="138" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B138" s="1">
-        <v>44691</v>
+        <v>44689</v>
       </c>
     </row>
     <row r="139" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B139" s="1">
-        <v>44692</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="140" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B140" s="1">
-        <v>44693</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="141" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B141" s="1">
-        <v>44694</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="142" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B142" s="1">
-        <v>44695</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="143" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B143" s="1">
-        <v>44696</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="144" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B144" s="1">
-        <v>44697</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="145" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B145" s="1">
-        <v>44698</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="146" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B146" s="1">
-        <v>44699</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="147" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B147" s="1">
-        <v>44700</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="148" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B148" s="1">
-        <v>44701</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="149" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B149" s="1">
-        <v>44702</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="150" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B150" s="1">
-        <v>44703</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="151" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B151" s="1">
-        <v>44704</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="152" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B152" s="1">
-        <v>44705</v>
+        <v>44703</v>
       </c>
     </row>
     <row r="153" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B153" s="1">
-        <v>44706</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="154" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B154" s="1">
-        <v>44707</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="155" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B155" s="1">
-        <v>44708</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="156" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B156" s="1">
-        <v>44709</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="157" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B157" s="1">
-        <v>44710</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="158" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B158" s="1">
-        <v>44711</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B159" s="1">
-        <v>44712</v>
+        <v>44710</v>
       </c>
     </row>
     <row r="160" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B160" s="1">
-        <v>44713</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B161" s="1">
-        <v>44714</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="162" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B162" s="1">
-        <v>44715</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="163" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B163" s="1">
-        <v>44716</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="164" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B164" s="1">
-        <v>44717</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="165" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B165" s="1">
-        <v>44718</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="166" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B166" s="1">
-        <v>44719</v>
+        <v>44717</v>
       </c>
     </row>
     <row r="167" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B167" s="1">
-        <v>44720</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="168" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B168" s="1">
-        <v>44721</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="169" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B169" s="1">
-        <v>44722</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="170" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B170" s="1">
-        <v>44723</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="171" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B171" s="1">
-        <v>44724</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="172" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B172" s="1">
-        <v>44725</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="173" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B173" s="1">
-        <v>44726</v>
+        <v>44724</v>
       </c>
     </row>
     <row r="174" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B174" s="1">
-        <v>44727</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="175" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B175" s="1">
-        <v>44728</v>
+        <v>44726</v>
       </c>
     </row>
     <row r="176" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B176" s="1">
-        <v>44729</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="177" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B177" s="1">
-        <v>44730</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="178" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B178" s="1">
-        <v>44731</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="179" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B179" s="1">
-        <v>44732</v>
+        <v>44730</v>
       </c>
     </row>
     <row r="180" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B180" s="1">
-        <v>44733</v>
+        <v>44731</v>
       </c>
     </row>
     <row r="181" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B181" s="1">
-        <v>44734</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="182" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B182" s="1">
-        <v>44735</v>
+        <v>44733</v>
       </c>
     </row>
     <row r="183" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B183" s="1">
-        <v>44736</v>
+        <v>44734</v>
       </c>
     </row>
     <row r="184" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B184" s="1">
-        <v>44737</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="185" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B185" s="1">
-        <v>44738</v>
+        <v>44736</v>
       </c>
     </row>
     <row r="186" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B186" s="1">
-        <v>44739</v>
+        <v>44737</v>
       </c>
     </row>
     <row r="187" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B187" s="1">
-        <v>44740</v>
+        <v>44738</v>
       </c>
     </row>
     <row r="188" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B188" s="1">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B189" s="1">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B190" s="1">
         <v>44741</v>
       </c>
     </row>
-    <row r="189" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="B189" s="1">
+    <row r="191" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="B191" s="1">
         <v>44742</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B190" s="1">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B191" s="1">
-        <v>44744</v>
       </c>
     </row>
     <row r="192" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B192" s="1">
-        <v>44745</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="193" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B193" s="1">
-        <v>44746</v>
+        <v>44744</v>
       </c>
     </row>
     <row r="194" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B194" s="1">
-        <v>44747</v>
+        <v>44745</v>
       </c>
     </row>
     <row r="195" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B195" s="1">
-        <v>44748</v>
+        <v>44746</v>
       </c>
     </row>
     <row r="196" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B196" s="1">
-        <v>44749</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="197" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B197" s="1">
-        <v>44750</v>
+        <v>44748</v>
       </c>
     </row>
     <row r="198" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B198" s="1">
-        <v>44751</v>
+        <v>44749</v>
       </c>
     </row>
     <row r="199" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B199" s="1">
-        <v>44752</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="200" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B200" s="1">
-        <v>44753</v>
+        <v>44751</v>
       </c>
     </row>
     <row r="201" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B201" s="1">
-        <v>44754</v>
+        <v>44752</v>
       </c>
     </row>
     <row r="202" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B202" s="1">
-        <v>44755</v>
+        <v>44753</v>
       </c>
     </row>
     <row r="203" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B203" s="1">
-        <v>44756</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="204" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B204" s="1">
-        <v>44757</v>
+        <v>44755</v>
       </c>
     </row>
     <row r="205" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B205" s="1">
-        <v>44758</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="206" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B206" s="1">
-        <v>44759</v>
+        <v>44757</v>
       </c>
     </row>
     <row r="207" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B207" s="1">
-        <v>44760</v>
+        <v>44758</v>
       </c>
     </row>
     <row r="208" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B208" s="1">
-        <v>44761</v>
+        <v>44759</v>
       </c>
     </row>
     <row r="209" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B209" s="1">
-        <v>44762</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="210" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B210" s="1">
-        <v>44763</v>
+        <v>44761</v>
       </c>
     </row>
     <row r="211" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B211" s="1">
-        <v>44764</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="212" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B212" s="1">
-        <v>44765</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="213" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B213" s="1">
-        <v>44766</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="214" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B214" s="1">
-        <v>44767</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="215" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B215" s="1">
-        <v>44768</v>
+        <v>44766</v>
       </c>
     </row>
     <row r="216" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B216" s="1">
-        <v>44769</v>
+        <v>44767</v>
       </c>
     </row>
     <row r="217" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B217" s="1">
-        <v>44770</v>
+        <v>44768</v>
       </c>
     </row>
     <row r="218" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B218" s="1">
-        <v>44771</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="219" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B219" s="1">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B220" s="1">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B221" s="1">
         <v>44772</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D221" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B220" s="1">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B222" s="1">
         <v>44773</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B221" s="1">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B222" s="1">
-        <v>44775</v>
       </c>
     </row>
     <row r="223" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B223" s="1">
-        <v>44776</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="224" spans="2:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B224" s="1">
-        <v>44777</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="225" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B225" s="1">
-        <v>44778</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="226" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B226" s="1">
-        <v>44779</v>
+        <v>44777</v>
       </c>
     </row>
     <row r="227" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B227" s="1">
-        <v>44780</v>
+        <v>44778</v>
       </c>
     </row>
     <row r="228" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B228" s="1">
-        <v>44781</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="229" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B229" s="1">
-        <v>44782</v>
+        <v>44780</v>
       </c>
     </row>
     <row r="230" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B230" s="1">
-        <v>44783</v>
+        <v>44781</v>
       </c>
     </row>
     <row r="231" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B231" s="1">
-        <v>44784</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="232" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B232" s="1">
-        <v>44785</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="233" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B233" s="1">
-        <v>44786</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="234" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B234" s="1">
-        <v>44787</v>
+        <v>44785</v>
       </c>
     </row>
     <row r="235" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B235" s="1">
-        <v>44788</v>
+        <v>44786</v>
       </c>
     </row>
     <row r="236" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B236" s="1">
-        <v>44789</v>
+        <v>44787</v>
       </c>
     </row>
     <row r="237" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B237" s="1">
-        <v>44790</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="238" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B238" s="1">
-        <v>44791</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="239" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B239" s="1">
-        <v>44792</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="240" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B240" s="1">
-        <v>44793</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="241" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B241" s="1">
-        <v>44794</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="242" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B242" s="1">
-        <v>44795</v>
+        <v>44793</v>
       </c>
     </row>
     <row r="243" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B243" s="1">
-        <v>44796</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="244" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B244" s="1">
-        <v>44797</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="245" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B245" s="1">
-        <v>44798</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="246" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B246" s="1">
-        <v>44799</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="247" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B247" s="1">
-        <v>44800</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="248" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B248" s="1">
-        <v>44801</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="249" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B249" s="1">
-        <v>44802</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="250" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B250" s="1">
-        <v>44803</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44801</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B251" s="1">
-        <v>44804</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="252" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B252" s="1">
-        <v>44805</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B253" s="1">
-        <v>44806</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="254" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B254" s="1">
-        <v>44807</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="255" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B255" s="1">
-        <v>44808</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="256" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B256" s="1">
-        <v>44809</v>
+        <v>44807</v>
       </c>
     </row>
     <row r="257" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B257" s="1">
-        <v>44810</v>
+        <v>44808</v>
       </c>
     </row>
     <row r="258" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B258" s="1">
-        <v>44811</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="259" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B259" s="1">
-        <v>44812</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="260" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B260" s="1">
-        <v>44813</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="261" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B261" s="1">
-        <v>44814</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="262" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B262" s="1">
-        <v>44815</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="263" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B263" s="1">
-        <v>44816</v>
+        <v>44814</v>
       </c>
     </row>
     <row r="264" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B264" s="1">
-        <v>44817</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="265" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B265" s="1">
-        <v>44818</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="266" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B266" s="1">
-        <v>44819</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="267" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B267" s="1">
-        <v>44820</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="268" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B268" s="1">
-        <v>44821</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="269" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B269" s="1">
-        <v>44822</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="270" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B270" s="1">
-        <v>44823</v>
+        <v>44821</v>
       </c>
     </row>
     <row r="271" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B271" s="1">
-        <v>44824</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="272" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B272" s="1">
-        <v>44825</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="273" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B273" s="1">
-        <v>44826</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="274" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B274" s="1">
-        <v>44827</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="275" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B275" s="1">
-        <v>44828</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="276" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B276" s="1">
-        <v>44829</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="277" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B277" s="1">
-        <v>44830</v>
+        <v>44828</v>
       </c>
     </row>
     <row r="278" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B278" s="1">
-        <v>44831</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="279" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B279" s="1">
-        <v>44832</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="280" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B280" s="1">
-        <v>44833</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B281" s="1">
-        <v>44834</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="282" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B282" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B283" s="1">
-        <v>44836</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="284" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B284" s="1">
-        <v>44837</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="285" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B285" s="1">
-        <v>44838</v>
+        <v>44836</v>
       </c>
     </row>
     <row r="286" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B286" s="1">
-        <v>44839</v>
+        <v>44837</v>
       </c>
     </row>
     <row r="287" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B287" s="1">
-        <v>44840</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="288" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B288" s="1">
-        <v>44841</v>
+        <v>44839</v>
       </c>
     </row>
     <row r="289" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B289" s="1">
-        <v>44842</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="290" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B290" s="1">
-        <v>44843</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="291" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B291" s="1">
-        <v>44844</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="292" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B292" s="1">
-        <v>44845</v>
+        <v>44843</v>
       </c>
     </row>
     <row r="293" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B293" s="1">
-        <v>44846</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="294" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B294" s="1">
-        <v>44847</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="295" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B295" s="1">
-        <v>44848</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="296" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B296" s="1">
-        <v>44849</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="297" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B297" s="1">
-        <v>44850</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="298" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B298" s="1">
-        <v>44851</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="299" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B299" s="1">
-        <v>44852</v>
+        <v>44850</v>
       </c>
     </row>
     <row r="300" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B300" s="1">
-        <v>44853</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="301" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B301" s="1">
-        <v>44854</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="302" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B302" s="1">
-        <v>44855</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="303" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B303" s="1">
-        <v>44856</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="304" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B304" s="1">
-        <v>44857</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="305" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B305" s="1">
-        <v>44858</v>
+        <v>44856</v>
       </c>
     </row>
     <row r="306" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B306" s="1">
-        <v>44859</v>
+        <v>44857</v>
       </c>
     </row>
     <row r="307" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B307" s="1">
-        <v>44860</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="308" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B308" s="1">
-        <v>44861</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="309" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B309" s="1">
-        <v>44862</v>
+        <v>44860</v>
       </c>
     </row>
     <row r="310" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B310" s="1">
-        <v>44863</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="311" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B311" s="1">
-        <v>44864</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B312" s="1">
-        <v>44865</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="313" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B313" s="1">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B314" s="1">
-        <v>44867</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="315" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B315" s="1">
-        <v>44868</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="316" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B316" s="1">
-        <v>44869</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="317" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B317" s="1">
-        <v>44870</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="318" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B318" s="1">
-        <v>44871</v>
+        <v>44869</v>
       </c>
     </row>
     <row r="319" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B319" s="1">
-        <v>44872</v>
+        <v>44870</v>
       </c>
     </row>
     <row r="320" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B320" s="1">
-        <v>44873</v>
+        <v>44871</v>
       </c>
     </row>
     <row r="321" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B321" s="1">
-        <v>44874</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="322" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B322" s="1">
-        <v>44875</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="323" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B323" s="1">
-        <v>44876</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="324" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B324" s="1">
-        <v>44877</v>
+        <v>44875</v>
       </c>
     </row>
     <row r="325" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B325" s="1">
-        <v>44878</v>
+        <v>44876</v>
       </c>
     </row>
     <row r="326" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B326" s="1">
-        <v>44879</v>
+        <v>44877</v>
       </c>
     </row>
     <row r="327" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B327" s="1">
-        <v>44880</v>
+        <v>44878</v>
       </c>
     </row>
     <row r="328" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B328" s="1">
-        <v>44881</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="329" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B329" s="1">
-        <v>44882</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="330" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B330" s="1">
-        <v>44883</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="331" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B331" s="1">
-        <v>44884</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="332" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B332" s="1">
-        <v>44885</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="333" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B333" s="1">
-        <v>44886</v>
+        <v>44884</v>
       </c>
     </row>
     <row r="334" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B334" s="1">
-        <v>44887</v>
+        <v>44885</v>
       </c>
     </row>
     <row r="335" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B335" s="1">
-        <v>44888</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="336" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B336" s="1">
-        <v>44889</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="337" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B337" s="1">
-        <v>44890</v>
+        <v>44888</v>
       </c>
     </row>
     <row r="338" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B338" s="1">
-        <v>44891</v>
+        <v>44889</v>
       </c>
     </row>
     <row r="339" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B339" s="1">
-        <v>44892</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="340" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B340" s="1">
-        <v>44893</v>
+        <v>44891</v>
       </c>
     </row>
     <row r="341" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B341" s="1">
-        <v>44894</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B342" s="1">
-        <v>44895</v>
+        <v>44893</v>
       </c>
     </row>
     <row r="343" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B343" s="1">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="344" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B344" s="1">
-        <v>44897</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="345" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B345" s="1">
-        <v>44898</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="346" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B346" s="1">
-        <v>44899</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="347" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B347" s="1">
-        <v>44900</v>
+        <v>44898</v>
       </c>
     </row>
     <row r="348" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B348" s="1">
-        <v>44901</v>
+        <v>44899</v>
       </c>
     </row>
     <row r="349" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B349" s="1">
-        <v>44902</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="350" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B350" s="1">
-        <v>44903</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="351" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B351" s="1">
-        <v>44904</v>
+        <v>44902</v>
       </c>
     </row>
     <row r="352" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B352" s="1">
-        <v>44905</v>
+        <v>44903</v>
       </c>
     </row>
     <row r="353" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B353" s="1">
-        <v>44906</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="354" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B354" s="1">
-        <v>44907</v>
+        <v>44905</v>
       </c>
     </row>
     <row r="355" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B355" s="1">
-        <v>44908</v>
+        <v>44906</v>
       </c>
     </row>
     <row r="356" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B356" s="1">
-        <v>44909</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="357" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B357" s="1">
-        <v>44910</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="358" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B358" s="1">
-        <v>44911</v>
+        <v>44909</v>
       </c>
     </row>
     <row r="359" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B359" s="1">
-        <v>44912</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="360" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B360" s="1">
-        <v>44913</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="361" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B361" s="1">
-        <v>44914</v>
+        <v>44912</v>
       </c>
     </row>
     <row r="362" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B362" s="1">
-        <v>44915</v>
+        <v>44913</v>
       </c>
     </row>
     <row r="363" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B363" s="1">
-        <v>44916</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="364" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B364" s="1">
-        <v>44917</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="365" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B365" s="1">
-        <v>44918</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="366" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B366" s="1">
-        <v>44919</v>
+        <v>44917</v>
       </c>
     </row>
     <row r="367" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B367" s="1">
-        <v>44920</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="368" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B368" s="1">
-        <v>44921</v>
+        <v>44919</v>
       </c>
     </row>
     <row r="369" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B369" s="1">
-        <v>44922</v>
+        <v>44920</v>
       </c>
     </row>
     <row r="370" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B370" s="1">
-        <v>44923</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="371" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B371" s="1">
-        <v>44924</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="372" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B372" s="1">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B373" s="1">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B374" s="1">
         <v>44925</v>
       </c>
     </row>
-    <row r="373" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="B373" s="1">
+    <row r="375" spans="2:2" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="B375" s="1">
         <v>44926</v>
       </c>
     </row>
